--- a/excel/Chevrolet.xlsx
+++ b/excel/Chevrolet.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6804" uniqueCount="1660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6805" uniqueCount="1661">
   <si>
     <t xml:space="preserve"># </t>
   </si>
@@ -5028,6 +5028,9 @@
   </si>
   <si>
     <t>AK5, C60, GAZ, LJ1, M25, N67, QKM, 1SB, 4BD, 4BD</t>
+  </si>
+  <si>
+    <t>nombre_usuario</t>
   </si>
 </sst>
 </file>
@@ -5530,10 +5533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z677"/>
+  <dimension ref="A1:AA677"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5546,7 +5549,7 @@
     <col min="25" max="26" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="13" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="13" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5613,8 +5616,11 @@
       <c r="Z1" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA1" s="13" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>454</v>
       </c>
@@ -5676,7 +5682,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>296</v>
       </c>
@@ -5742,7 +5748,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>297</v>
       </c>
@@ -5808,7 +5814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>298</v>
       </c>
@@ -5874,7 +5880,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>294</v>
       </c>
@@ -5940,7 +5946,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>352</v>
       </c>
@@ -6010,7 +6016,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>464</v>
       </c>
@@ -6078,7 +6084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>474</v>
       </c>
@@ -6140,7 +6146,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>221</v>
       </c>
@@ -6210,7 +6216,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>386</v>
       </c>
@@ -6274,7 +6280,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>303</v>
       </c>
@@ -6338,7 +6344,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>431</v>
       </c>
@@ -6398,7 +6404,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>387</v>
       </c>
@@ -6462,7 +6468,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>388</v>
       </c>
@@ -6526,7 +6532,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>434</v>
       </c>
